--- a/project_schedule.xlsx
+++ b/project_schedule.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA45614F-F66F-4E14-90F8-909326DCBF79}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6B464A-BA19-4BC8-B7EA-68FD44C4C8DB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Matteo</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>Context Generation for disaggregation</t>
+  </si>
+  <si>
+    <t>CANE</t>
   </si>
 </sst>
 </file>
@@ -479,7 +482,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -519,7 +522,9 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="10"/>
+      <c r="F2" s="10" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
